--- a/Code/Results/Cases/Case_3_255/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_255/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.022080318212645</v>
+        <v>1.04506430032093</v>
       </c>
       <c r="D2">
-        <v>1.039558347347935</v>
+        <v>1.051698405279343</v>
       </c>
       <c r="E2">
-        <v>1.034998228351121</v>
+        <v>1.052795448883082</v>
       </c>
       <c r="F2">
-        <v>1.044640667663203</v>
+        <v>1.063451034760574</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.057054912356948</v>
+        <v>1.045767134120241</v>
       </c>
       <c r="J2">
-        <v>1.043620087277157</v>
+        <v>1.050126033778945</v>
       </c>
       <c r="K2">
-        <v>1.050492765834178</v>
+        <v>1.054449185893118</v>
       </c>
       <c r="L2">
-        <v>1.045990599343476</v>
+        <v>1.055543193097044</v>
       </c>
       <c r="M2">
-        <v>1.055511240359907</v>
+        <v>1.066169639263911</v>
       </c>
       <c r="N2">
-        <v>1.045102147505988</v>
+        <v>1.05161733319805</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.026131925241309</v>
+        <v>1.045925137196454</v>
       </c>
       <c r="D3">
-        <v>1.042636204928705</v>
+        <v>1.052374087308295</v>
       </c>
       <c r="E3">
-        <v>1.038357088015277</v>
+        <v>1.053558308311489</v>
       </c>
       <c r="F3">
-        <v>1.04830964616277</v>
+        <v>1.064288539036854</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.058413207254488</v>
+        <v>1.04599613584192</v>
       </c>
       <c r="J3">
-        <v>1.045934698971708</v>
+        <v>1.050634818944301</v>
       </c>
       <c r="K3">
-        <v>1.052751132543942</v>
+        <v>1.054937918421713</v>
       </c>
       <c r="L3">
-        <v>1.048521623540955</v>
+        <v>1.056119097755566</v>
       </c>
       <c r="M3">
-        <v>1.058359571723067</v>
+        <v>1.066822100355134</v>
       </c>
       <c r="N3">
-        <v>1.047420046214634</v>
+        <v>1.0521268408967</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.028704856782724</v>
+        <v>1.04648273790602</v>
       </c>
       <c r="D4">
-        <v>1.044593359280126</v>
+        <v>1.052811775128941</v>
       </c>
       <c r="E4">
-        <v>1.040495635435281</v>
+        <v>1.054052829295803</v>
       </c>
       <c r="F4">
-        <v>1.050645504838869</v>
+        <v>1.064831462586124</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.059265962030937</v>
+        <v>1.046143257411248</v>
       </c>
       <c r="J4">
-        <v>1.047401738755341</v>
+        <v>1.050963946923528</v>
       </c>
       <c r="K4">
-        <v>1.054181799058385</v>
+        <v>1.055253955041966</v>
       </c>
       <c r="L4">
-        <v>1.050128697464699</v>
+        <v>1.056491981453951</v>
       </c>
       <c r="M4">
-        <v>1.060168819550767</v>
+        <v>1.067244637355262</v>
       </c>
       <c r="N4">
-        <v>1.048889169363032</v>
+        <v>1.052456436275409</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.029775215359488</v>
+        <v>1.046717290916649</v>
       </c>
       <c r="D5">
-        <v>1.045408131908</v>
+        <v>1.052995891382413</v>
       </c>
       <c r="E5">
-        <v>1.04138658232055</v>
+        <v>1.054260939553609</v>
       </c>
       <c r="F5">
-        <v>1.051618624982533</v>
+        <v>1.065059945679874</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.059618323964556</v>
+        <v>1.046204853261524</v>
       </c>
       <c r="J5">
-        <v>1.04801133085674</v>
+        <v>1.05110228949856</v>
       </c>
       <c r="K5">
-        <v>1.054776096684183</v>
+        <v>1.055386766210052</v>
       </c>
       <c r="L5">
-        <v>1.050797167474497</v>
+        <v>1.056648796567911</v>
       </c>
       <c r="M5">
-        <v>1.060921553054883</v>
+        <v>1.067422354356361</v>
       </c>
       <c r="N5">
-        <v>1.049499627155136</v>
+        <v>1.052594975312765</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.029954280817981</v>
+        <v>1.046756681426368</v>
       </c>
       <c r="D6">
-        <v>1.045544472218829</v>
+        <v>1.053026811845578</v>
       </c>
       <c r="E6">
-        <v>1.041535708317302</v>
+        <v>1.054295894656768</v>
       </c>
       <c r="F6">
-        <v>1.051781503470998</v>
+        <v>1.065098322899427</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.059677130782401</v>
+        <v>1.046215180554415</v>
       </c>
       <c r="J6">
-        <v>1.048113270082804</v>
+        <v>1.051125516450095</v>
       </c>
       <c r="K6">
-        <v>1.054875467484885</v>
+        <v>1.055409062782723</v>
       </c>
       <c r="L6">
-        <v>1.050908993214794</v>
+        <v>1.056675129688124</v>
       </c>
       <c r="M6">
-        <v>1.061047484813003</v>
+        <v>1.067452198611154</v>
       </c>
       <c r="N6">
-        <v>1.049601711146594</v>
+        <v>1.052618235249236</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.028719202903674</v>
+        <v>1.04648587147585</v>
       </c>
       <c r="D7">
-        <v>1.044604277511687</v>
+        <v>1.052814234860294</v>
       </c>
       <c r="E7">
-        <v>1.04050757181207</v>
+        <v>1.054055609238082</v>
       </c>
       <c r="F7">
-        <v>1.050658542234294</v>
+        <v>1.0648345146555</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.059270694257314</v>
+        <v>1.046144081457289</v>
       </c>
       <c r="J7">
-        <v>1.047409912007728</v>
+        <v>1.050965795555076</v>
       </c>
       <c r="K7">
-        <v>1.054189767968136</v>
+        <v>1.055255729871865</v>
       </c>
       <c r="L7">
-        <v>1.050137657407229</v>
+        <v>1.05649407661161</v>
       </c>
       <c r="M7">
-        <v>1.060178908267011</v>
+        <v>1.067247011696574</v>
       </c>
       <c r="N7">
-        <v>1.048897354222376</v>
+        <v>1.052458287532226</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.023459891769749</v>
+        <v>1.045355102777114</v>
       </c>
       <c r="D8">
-        <v>1.040605791102694</v>
+        <v>1.051926655498481</v>
       </c>
       <c r="E8">
-        <v>1.036140740558034</v>
+        <v>1.053053073377221</v>
       </c>
       <c r="F8">
-        <v>1.04588869763327</v>
+        <v>1.063733864572442</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.057519446588304</v>
+        <v>1.045844744876727</v>
       </c>
       <c r="J8">
-        <v>1.044408788815577</v>
+        <v>1.050297997987951</v>
       </c>
       <c r="K8">
-        <v>1.051262449719782</v>
+        <v>1.054614397207575</v>
       </c>
       <c r="L8">
-        <v>1.046852442829849</v>
+        <v>1.05573777328538</v>
       </c>
       <c r="M8">
-        <v>1.056480984336259</v>
+        <v>1.066390067899581</v>
       </c>
       <c r="N8">
-        <v>1.045891969091058</v>
+        <v>1.051789541615958</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.013801925746004</v>
+        <v>1.043367069041824</v>
       </c>
       <c r="D9">
-        <v>1.03328563022268</v>
+        <v>1.050366352950183</v>
       </c>
       <c r="E9">
-        <v>1.028167223581596</v>
+        <v>1.051293449323716</v>
       </c>
       <c r="F9">
-        <v>1.037178037897334</v>
+        <v>1.061802139398889</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.054227323785714</v>
+        <v>1.045309209241289</v>
       </c>
       <c r="J9">
-        <v>1.038876542771014</v>
+        <v>1.049120619893773</v>
       </c>
       <c r="K9">
-        <v>1.045860806109406</v>
+        <v>1.053482767197605</v>
       </c>
       <c r="L9">
-        <v>1.040819258928194</v>
+        <v>1.054406931924681</v>
       </c>
       <c r="M9">
-        <v>1.049695409500584</v>
+        <v>1.064882782523879</v>
       </c>
       <c r="N9">
-        <v>1.040351866622554</v>
+        <v>1.05061049150984</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.007075464754941</v>
+        <v>1.042044849914803</v>
       </c>
       <c r="D10">
-        <v>1.028205410799873</v>
+        <v>1.049328760406604</v>
       </c>
       <c r="E10">
-        <v>1.022647146523153</v>
+        <v>1.050125162072928</v>
       </c>
       <c r="F10">
-        <v>1.031146516545019</v>
+        <v>1.0605196547005</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.051885225781064</v>
+        <v>1.044946810026286</v>
       </c>
       <c r="J10">
-        <v>1.035011145150005</v>
+        <v>1.048335350879623</v>
       </c>
       <c r="K10">
-        <v>1.042083421287307</v>
+        <v>1.052727403195824</v>
       </c>
       <c r="L10">
-        <v>1.036619194695388</v>
+        <v>1.053521040779255</v>
       </c>
       <c r="M10">
-        <v>1.044975296231877</v>
+        <v>1.063879875654256</v>
       </c>
       <c r="N10">
-        <v>1.036480979693556</v>
+        <v>1.049824107323618</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.004088505083067</v>
+        <v>1.041473078170189</v>
       </c>
       <c r="D11">
-        <v>1.025954422156704</v>
+        <v>1.048880112224154</v>
       </c>
       <c r="E11">
-        <v>1.020204344918235</v>
+        <v>1.049620440947355</v>
       </c>
       <c r="F11">
-        <v>1.028477060332028</v>
+        <v>1.059965613437654</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.050834037838794</v>
+        <v>1.044788622231747</v>
       </c>
       <c r="J11">
-        <v>1.033292181073807</v>
+        <v>1.047995253551251</v>
       </c>
       <c r="K11">
-        <v>1.040402930739119</v>
+        <v>1.05240011474165</v>
       </c>
       <c r="L11">
-        <v>1.034755037025478</v>
+        <v>1.053137774963548</v>
       </c>
       <c r="M11">
-        <v>1.042881206804758</v>
+        <v>1.063446088454769</v>
       </c>
       <c r="N11">
-        <v>1.034759574491201</v>
+        <v>1.049483527018029</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.002967291681055</v>
+        <v>1.041260812122976</v>
       </c>
       <c r="D12">
-        <v>1.025110270565245</v>
+        <v>1.048713561676464</v>
       </c>
       <c r="E12">
-        <v>1.019288712276665</v>
+        <v>1.049433140409721</v>
       </c>
       <c r="F12">
-        <v>1.027476416993459</v>
+        <v>1.059760012559265</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.050437824459363</v>
+        <v>1.044729674747689</v>
       </c>
       <c r="J12">
-        <v>1.032646599146396</v>
+        <v>1.047868916917215</v>
       </c>
       <c r="K12">
-        <v>1.039771706947738</v>
+        <v>1.052278514871461</v>
       </c>
       <c r="L12">
-        <v>1.034055471745561</v>
+        <v>1.052995464123998</v>
       </c>
       <c r="M12">
-        <v>1.042095488187954</v>
+        <v>1.063285034015106</v>
       </c>
       <c r="N12">
-        <v>1.034113075763405</v>
+        <v>1.049357010971482</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.003208335519247</v>
+        <v>1.041306338661549</v>
       </c>
       <c r="D13">
-        <v>1.025291713170551</v>
+        <v>1.048749282899923</v>
       </c>
       <c r="E13">
-        <v>1.019485498863926</v>
+        <v>1.04947330904585</v>
       </c>
       <c r="F13">
-        <v>1.027691476495283</v>
+        <v>1.059804105803066</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.050523077192553</v>
+        <v>1.044742327745418</v>
       </c>
       <c r="J13">
-        <v>1.032785403959275</v>
+        <v>1.047896016956447</v>
       </c>
       <c r="K13">
-        <v>1.039907428629048</v>
+        <v>1.052304599809433</v>
       </c>
       <c r="L13">
-        <v>1.034205858684764</v>
+        <v>1.053025987944504</v>
       </c>
       <c r="M13">
-        <v>1.042264389642817</v>
+        <v>1.0633195773899</v>
       </c>
       <c r="N13">
-        <v>1.034252077695038</v>
+        <v>1.049384149495878</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.003996067703413</v>
+        <v>1.041455529828502</v>
       </c>
       <c r="D14">
-        <v>1.025884810246758</v>
+        <v>1.048866343107479</v>
       </c>
       <c r="E14">
-        <v>1.020128829299224</v>
+        <v>1.04960495503853</v>
       </c>
       <c r="F14">
-        <v>1.028394534694397</v>
+        <v>1.059948614421513</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.050801405263448</v>
+        <v>1.044783753475368</v>
       </c>
       <c r="J14">
-        <v>1.033238963270285</v>
+        <v>1.04798481070891</v>
       </c>
       <c r="K14">
-        <v>1.040350898332645</v>
+        <v>1.052390063870307</v>
       </c>
       <c r="L14">
-        <v>1.034697358059655</v>
+        <v>1.053126010453423</v>
       </c>
       <c r="M14">
-        <v>1.042816421803203</v>
+        <v>1.063432774137055</v>
       </c>
       <c r="N14">
-        <v>1.034706281112294</v>
+        <v>1.049473069345655</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.00447984492457</v>
+        <v>1.041547466774116</v>
       </c>
       <c r="D15">
-        <v>1.026249161853983</v>
+        <v>1.048938480719507</v>
       </c>
       <c r="E15">
-        <v>1.020524099509522</v>
+        <v>1.049686089771576</v>
       </c>
       <c r="F15">
-        <v>1.028826495099788</v>
+        <v>1.060037676810643</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.050972123858401</v>
+        <v>1.044809252148697</v>
       </c>
       <c r="J15">
-        <v>1.033517468772023</v>
+        <v>1.048039518270352</v>
       </c>
       <c r="K15">
-        <v>1.04062319661613</v>
+        <v>1.052442717114394</v>
       </c>
       <c r="L15">
-        <v>1.034999232498896</v>
+        <v>1.053187644443053</v>
       </c>
       <c r="M15">
-        <v>1.043155492552814</v>
+        <v>1.06350252816876</v>
       </c>
       <c r="N15">
-        <v>1.03498518212379</v>
+        <v>1.049527854598109</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.007272086430485</v>
+        <v>1.042082812624202</v>
       </c>
       <c r="D16">
-        <v>1.028353693865647</v>
+        <v>1.049358549265298</v>
       </c>
       <c r="E16">
-        <v>1.022808128574485</v>
+        <v>1.0501586832427</v>
       </c>
       <c r="F16">
-        <v>1.031322428044462</v>
+        <v>1.060556451793621</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.051954193232874</v>
+        <v>1.044957281812011</v>
       </c>
       <c r="J16">
-        <v>1.035124250165439</v>
+        <v>1.048357920639077</v>
       </c>
       <c r="K16">
-        <v>1.042193981666682</v>
+        <v>1.052749119922202</v>
       </c>
       <c r="L16">
-        <v>1.03674192898722</v>
+        <v>1.053546483963368</v>
       </c>
       <c r="M16">
-        <v>1.045113187525025</v>
+        <v>1.063908674892569</v>
       </c>
       <c r="N16">
-        <v>1.036594245331085</v>
+        <v>1.049846709134719</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.009003298720297</v>
+        <v>1.042418824945594</v>
       </c>
       <c r="D17">
-        <v>1.029659864903083</v>
+        <v>1.049622218758874</v>
       </c>
       <c r="E17">
-        <v>1.024226510766075</v>
+        <v>1.050455439157945</v>
       </c>
       <c r="F17">
-        <v>1.032872313021387</v>
+        <v>1.060882210525456</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.052560171102311</v>
+        <v>1.045049798376481</v>
       </c>
       <c r="J17">
-        <v>1.036119836531231</v>
+        <v>1.048557628012843</v>
       </c>
       <c r="K17">
-        <v>1.043167094501986</v>
+        <v>1.0529412627831</v>
       </c>
       <c r="L17">
-        <v>1.037822689322647</v>
+        <v>1.053771664118149</v>
       </c>
       <c r="M17">
-        <v>1.046327516895329</v>
+        <v>1.064163569139759</v>
       </c>
       <c r="N17">
-        <v>1.037591245543712</v>
+        <v>1.050046700115863</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.010005950150434</v>
+        <v>1.042614888264641</v>
       </c>
       <c r="D18">
-        <v>1.030416814271374</v>
+        <v>1.049776073982096</v>
       </c>
       <c r="E18">
-        <v>1.025048782702344</v>
+        <v>1.050628643176459</v>
       </c>
       <c r="F18">
-        <v>1.033770789835918</v>
+        <v>1.061072343749858</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.052910066941984</v>
+        <v>1.045103639467182</v>
       </c>
       <c r="J18">
-        <v>1.036696202347774</v>
+        <v>1.048674107041822</v>
       </c>
       <c r="K18">
-        <v>1.04373038604454</v>
+        <v>1.053053316030392</v>
       </c>
       <c r="L18">
-        <v>1.038448709266813</v>
+        <v>1.053903039723105</v>
       </c>
       <c r="M18">
-        <v>1.047030989711796</v>
+        <v>1.064312290662629</v>
       </c>
       <c r="N18">
-        <v>1.038168429865824</v>
+        <v>1.050163344558422</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.010346634308054</v>
+        <v>1.042681753126714</v>
       </c>
       <c r="D19">
-        <v>1.030674090223395</v>
+        <v>1.049828544975383</v>
       </c>
       <c r="E19">
-        <v>1.025328311086193</v>
+        <v>1.050687720095511</v>
       </c>
       <c r="F19">
-        <v>1.03407621875528</v>
+        <v>1.061137195182778</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.053028773990115</v>
+        <v>1.045121977126971</v>
       </c>
       <c r="J19">
-        <v>1.036892000041651</v>
+        <v>1.048713822170962</v>
       </c>
       <c r="K19">
-        <v>1.043921731169322</v>
+        <v>1.053091519786318</v>
       </c>
       <c r="L19">
-        <v>1.038661433547901</v>
+        <v>1.053947840764645</v>
       </c>
       <c r="M19">
-        <v>1.047270047108224</v>
+        <v>1.064363008615505</v>
       </c>
       <c r="N19">
-        <v>1.038364505614885</v>
+        <v>1.050203116087602</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.008818297958235</v>
+        <v>1.042382766439638</v>
       </c>
       <c r="D20">
-        <v>1.029520236202107</v>
+        <v>1.049593923167445</v>
       </c>
       <c r="E20">
-        <v>1.024074856352895</v>
+        <v>1.05042358852971</v>
       </c>
       <c r="F20">
-        <v>1.032706601448157</v>
+        <v>1.060847246890912</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.052495525058831</v>
+        <v>1.045039884864503</v>
       </c>
       <c r="J20">
-        <v>1.036013470767598</v>
+        <v>1.048536202006509</v>
       </c>
       <c r="K20">
-        <v>1.043063136313222</v>
+        <v>1.052920649776518</v>
       </c>
       <c r="L20">
-        <v>1.03770718799943</v>
+        <v>1.053747501115892</v>
       </c>
       <c r="M20">
-        <v>1.046197732246974</v>
+        <v>1.06413621662753</v>
       </c>
       <c r="N20">
-        <v>1.037484728728494</v>
+        <v>1.050025243682141</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.003764428442473</v>
+        <v>1.041411593549026</v>
       </c>
       <c r="D21">
-        <v>1.025710382544241</v>
+        <v>1.048831869092045</v>
       </c>
       <c r="E21">
-        <v>1.019939615811696</v>
+        <v>1.049566183719275</v>
       </c>
       <c r="F21">
-        <v>1.028187755871844</v>
+        <v>1.059906054844429</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.050719605042899</v>
+        <v>1.044771559855013</v>
       </c>
       <c r="J21">
-        <v>1.033105599260018</v>
+        <v>1.047958663409637</v>
       </c>
       <c r="K21">
-        <v>1.040220503494001</v>
+        <v>1.052364897662215</v>
       </c>
       <c r="L21">
-        <v>1.034552823161857</v>
+        <v>1.053096554894041</v>
       </c>
       <c r="M21">
-        <v>1.042654082390642</v>
+        <v>1.063399438476105</v>
       </c>
       <c r="N21">
-        <v>1.034572727709836</v>
+        <v>1.049446884914217</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.000518732461433</v>
+        <v>1.040801647272034</v>
       </c>
       <c r="D22">
-        <v>1.02326831063267</v>
+        <v>1.048353299640929</v>
       </c>
       <c r="E22">
-        <v>1.017291594981249</v>
+        <v>1.049028114780141</v>
       </c>
       <c r="F22">
-        <v>1.025293775014575</v>
+        <v>1.059315417575358</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.049569612340267</v>
+        <v>1.044601757311042</v>
       </c>
       <c r="J22">
-        <v>1.031236174569018</v>
+        <v>1.047595488543407</v>
       </c>
       <c r="K22">
-        <v>1.038392493635834</v>
+        <v>1.052015299213059</v>
       </c>
       <c r="L22">
-        <v>1.032528112435067</v>
+        <v>1.052687575813047</v>
       </c>
       <c r="M22">
-        <v>1.040380276196253</v>
+        <v>1.062936622512228</v>
       </c>
       <c r="N22">
-        <v>1.032700648221349</v>
+        <v>1.049083194298021</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.002245988391878</v>
+        <v>1.041124927424973</v>
       </c>
       <c r="D23">
-        <v>1.024567440908426</v>
+        <v>1.0486069442904</v>
       </c>
       <c r="E23">
-        <v>1.018700042596265</v>
+        <v>1.049313258433831</v>
       </c>
       <c r="F23">
-        <v>1.026833077188176</v>
+        <v>1.059628418040265</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.050182477723619</v>
+        <v>1.044691876472564</v>
       </c>
       <c r="J23">
-        <v>1.032231191428386</v>
+        <v>1.047788019050715</v>
       </c>
       <c r="K23">
-        <v>1.039365513609256</v>
+        <v>1.052200644118646</v>
       </c>
       <c r="L23">
-        <v>1.033605481723006</v>
+        <v>1.052904354764175</v>
       </c>
       <c r="M23">
-        <v>1.041590118346649</v>
+        <v>1.063181929121442</v>
       </c>
       <c r="N23">
-        <v>1.033697078118787</v>
+        <v>1.049275998220733</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.008901913850028</v>
+        <v>1.042399059500929</v>
       </c>
       <c r="D24">
-        <v>1.029583343576085</v>
+        <v>1.049606708538156</v>
       </c>
       <c r="E24">
-        <v>1.02414339802292</v>
+        <v>1.050437980113907</v>
       </c>
       <c r="F24">
-        <v>1.032781496481235</v>
+        <v>1.060863045070504</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.052524746813433</v>
+        <v>1.045044364731685</v>
       </c>
       <c r="J24">
-        <v>1.036061546277792</v>
+        <v>1.048545883517982</v>
       </c>
       <c r="K24">
-        <v>1.043110123839355</v>
+        <v>1.052929963970208</v>
       </c>
       <c r="L24">
-        <v>1.037759391556742</v>
+        <v>1.053758419238353</v>
       </c>
       <c r="M24">
-        <v>1.046256391229943</v>
+        <v>1.064148575908433</v>
       </c>
       <c r="N24">
-        <v>1.037532872511428</v>
+        <v>1.050034938942471</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.016347524877742</v>
+        <v>1.043880477460844</v>
       </c>
       <c r="D25">
-        <v>1.035212137097949</v>
+        <v>1.050769276300649</v>
       </c>
       <c r="E25">
-        <v>1.03026328683706</v>
+        <v>1.051747516970345</v>
       </c>
       <c r="F25">
-        <v>1.039468054530218</v>
+        <v>1.062300605193824</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.055103718677337</v>
+        <v>1.045448609013341</v>
       </c>
       <c r="J25">
-        <v>1.040336982054886</v>
+        <v>1.049425067630118</v>
       </c>
       <c r="K25">
-        <v>1.047287359487359</v>
+        <v>1.053775492769696</v>
       </c>
       <c r="L25">
-        <v>1.042409290995855</v>
+        <v>1.054750756962329</v>
       </c>
       <c r="M25">
-        <v>1.051483087007274</v>
+        <v>1.065272115167433</v>
       </c>
       <c r="N25">
-        <v>1.041814379897724</v>
+        <v>1.050915371596891</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_255/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_255/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.04506430032093</v>
+        <v>1.022080318212646</v>
       </c>
       <c r="D2">
-        <v>1.051698405279343</v>
+        <v>1.039558347347935</v>
       </c>
       <c r="E2">
-        <v>1.052795448883082</v>
+        <v>1.034998228351122</v>
       </c>
       <c r="F2">
-        <v>1.063451034760574</v>
+        <v>1.044640667663203</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045767134120241</v>
+        <v>1.057054912356947</v>
       </c>
       <c r="J2">
-        <v>1.050126033778945</v>
+        <v>1.043620087277157</v>
       </c>
       <c r="K2">
-        <v>1.054449185893118</v>
+        <v>1.050492765834178</v>
       </c>
       <c r="L2">
-        <v>1.055543193097044</v>
+        <v>1.045990599343476</v>
       </c>
       <c r="M2">
-        <v>1.066169639263911</v>
+        <v>1.055511240359907</v>
       </c>
       <c r="N2">
-        <v>1.05161733319805</v>
+        <v>1.045102147505988</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.045925137196454</v>
+        <v>1.026131925241309</v>
       </c>
       <c r="D3">
-        <v>1.052374087308295</v>
+        <v>1.042636204928705</v>
       </c>
       <c r="E3">
-        <v>1.053558308311489</v>
+        <v>1.038357088015277</v>
       </c>
       <c r="F3">
-        <v>1.064288539036854</v>
+        <v>1.04830964616277</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04599613584192</v>
+        <v>1.058413207254488</v>
       </c>
       <c r="J3">
-        <v>1.050634818944301</v>
+        <v>1.045934698971707</v>
       </c>
       <c r="K3">
-        <v>1.054937918421713</v>
+        <v>1.052751132543942</v>
       </c>
       <c r="L3">
-        <v>1.056119097755566</v>
+        <v>1.048521623540955</v>
       </c>
       <c r="M3">
-        <v>1.066822100355134</v>
+        <v>1.058359571723067</v>
       </c>
       <c r="N3">
-        <v>1.0521268408967</v>
+        <v>1.047420046214634</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.04648273790602</v>
+        <v>1.028704856782724</v>
       </c>
       <c r="D4">
-        <v>1.052811775128941</v>
+        <v>1.044593359280125</v>
       </c>
       <c r="E4">
-        <v>1.054052829295803</v>
+        <v>1.04049563543528</v>
       </c>
       <c r="F4">
-        <v>1.064831462586124</v>
+        <v>1.050645504838869</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046143257411248</v>
+        <v>1.059265962030936</v>
       </c>
       <c r="J4">
-        <v>1.050963946923528</v>
+        <v>1.04740173875534</v>
       </c>
       <c r="K4">
-        <v>1.055253955041966</v>
+        <v>1.054181799058384</v>
       </c>
       <c r="L4">
-        <v>1.056491981453951</v>
+        <v>1.050128697464698</v>
       </c>
       <c r="M4">
-        <v>1.067244637355262</v>
+        <v>1.060168819550766</v>
       </c>
       <c r="N4">
-        <v>1.052456436275409</v>
+        <v>1.048889169363031</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.046717290916649</v>
+        <v>1.029775215359486</v>
       </c>
       <c r="D5">
-        <v>1.052995891382413</v>
+        <v>1.045408131907998</v>
       </c>
       <c r="E5">
-        <v>1.054260939553609</v>
+        <v>1.041386582320548</v>
       </c>
       <c r="F5">
-        <v>1.065059945679874</v>
+        <v>1.051618624982531</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046204853261524</v>
+        <v>1.059618323964555</v>
       </c>
       <c r="J5">
-        <v>1.05110228949856</v>
+        <v>1.048011330856738</v>
       </c>
       <c r="K5">
-        <v>1.055386766210052</v>
+        <v>1.054776096684182</v>
       </c>
       <c r="L5">
-        <v>1.056648796567911</v>
+        <v>1.050797167474495</v>
       </c>
       <c r="M5">
-        <v>1.067422354356361</v>
+        <v>1.06092155305488</v>
       </c>
       <c r="N5">
-        <v>1.052594975312765</v>
+        <v>1.049499627155134</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.046756681426368</v>
+        <v>1.029954280817981</v>
       </c>
       <c r="D6">
-        <v>1.053026811845578</v>
+        <v>1.045544472218829</v>
       </c>
       <c r="E6">
-        <v>1.054295894656768</v>
+        <v>1.041535708317302</v>
       </c>
       <c r="F6">
-        <v>1.065098322899427</v>
+        <v>1.051781503470998</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046215180554415</v>
+        <v>1.059677130782401</v>
       </c>
       <c r="J6">
-        <v>1.051125516450095</v>
+        <v>1.048113270082804</v>
       </c>
       <c r="K6">
-        <v>1.055409062782723</v>
+        <v>1.054875467484885</v>
       </c>
       <c r="L6">
-        <v>1.056675129688124</v>
+        <v>1.050908993214794</v>
       </c>
       <c r="M6">
-        <v>1.067452198611154</v>
+        <v>1.061047484813004</v>
       </c>
       <c r="N6">
-        <v>1.052618235249236</v>
+        <v>1.049601711146594</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.04648587147585</v>
+        <v>1.028719202903674</v>
       </c>
       <c r="D7">
-        <v>1.052814234860294</v>
+        <v>1.044604277511687</v>
       </c>
       <c r="E7">
-        <v>1.054055609238082</v>
+        <v>1.040507571812069</v>
       </c>
       <c r="F7">
-        <v>1.0648345146555</v>
+        <v>1.050658542234293</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046144081457289</v>
+        <v>1.059270694257314</v>
       </c>
       <c r="J7">
-        <v>1.050965795555076</v>
+        <v>1.047409912007728</v>
       </c>
       <c r="K7">
-        <v>1.055255729871865</v>
+        <v>1.054189767968136</v>
       </c>
       <c r="L7">
-        <v>1.05649407661161</v>
+        <v>1.050137657407229</v>
       </c>
       <c r="M7">
-        <v>1.067247011696574</v>
+        <v>1.06017890826701</v>
       </c>
       <c r="N7">
-        <v>1.052458287532226</v>
+        <v>1.048897354222375</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.045355102777114</v>
+        <v>1.023459891769749</v>
       </c>
       <c r="D8">
-        <v>1.051926655498481</v>
+        <v>1.040605791102694</v>
       </c>
       <c r="E8">
-        <v>1.053053073377221</v>
+        <v>1.036140740558034</v>
       </c>
       <c r="F8">
-        <v>1.063733864572442</v>
+        <v>1.04588869763327</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045844744876727</v>
+        <v>1.057519446588304</v>
       </c>
       <c r="J8">
-        <v>1.050297997987951</v>
+        <v>1.044408788815577</v>
       </c>
       <c r="K8">
-        <v>1.054614397207575</v>
+        <v>1.051262449719782</v>
       </c>
       <c r="L8">
-        <v>1.05573777328538</v>
+        <v>1.046852442829849</v>
       </c>
       <c r="M8">
-        <v>1.066390067899581</v>
+        <v>1.056480984336259</v>
       </c>
       <c r="N8">
-        <v>1.051789541615958</v>
+        <v>1.045891969091057</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.043367069041824</v>
+        <v>1.013801925746004</v>
       </c>
       <c r="D9">
-        <v>1.050366352950183</v>
+        <v>1.033285630222681</v>
       </c>
       <c r="E9">
-        <v>1.051293449323716</v>
+        <v>1.028167223581597</v>
       </c>
       <c r="F9">
-        <v>1.061802139398889</v>
+        <v>1.037178037897334</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045309209241289</v>
+        <v>1.054227323785714</v>
       </c>
       <c r="J9">
-        <v>1.049120619893773</v>
+        <v>1.038876542771014</v>
       </c>
       <c r="K9">
-        <v>1.053482767197605</v>
+        <v>1.045860806109406</v>
       </c>
       <c r="L9">
-        <v>1.054406931924681</v>
+        <v>1.040819258928194</v>
       </c>
       <c r="M9">
-        <v>1.064882782523879</v>
+        <v>1.049695409500584</v>
       </c>
       <c r="N9">
-        <v>1.05061049150984</v>
+        <v>1.040351866622554</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C10">
-        <v>1.042044849914803</v>
+        <v>1.007075464754941</v>
       </c>
       <c r="D10">
-        <v>1.049328760406604</v>
+        <v>1.028205410799873</v>
       </c>
       <c r="E10">
-        <v>1.050125162072928</v>
+        <v>1.022647146523153</v>
       </c>
       <c r="F10">
-        <v>1.0605196547005</v>
+        <v>1.03114651654502</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044946810026286</v>
+        <v>1.051885225781065</v>
       </c>
       <c r="J10">
-        <v>1.048335350879623</v>
+        <v>1.035011145150005</v>
       </c>
       <c r="K10">
-        <v>1.052727403195824</v>
+        <v>1.042083421287308</v>
       </c>
       <c r="L10">
-        <v>1.053521040779255</v>
+        <v>1.036619194695388</v>
       </c>
       <c r="M10">
-        <v>1.063879875654256</v>
+        <v>1.044975296231877</v>
       </c>
       <c r="N10">
-        <v>1.049824107323618</v>
+        <v>1.036480979693556</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.041473078170189</v>
+        <v>1.004088505083066</v>
       </c>
       <c r="D11">
-        <v>1.048880112224154</v>
+        <v>1.025954422156703</v>
       </c>
       <c r="E11">
-        <v>1.049620440947355</v>
+        <v>1.020204344918235</v>
       </c>
       <c r="F11">
-        <v>1.059965613437654</v>
+        <v>1.028477060332027</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044788622231747</v>
+        <v>1.050834037838793</v>
       </c>
       <c r="J11">
-        <v>1.047995253551251</v>
+        <v>1.033292181073806</v>
       </c>
       <c r="K11">
-        <v>1.05240011474165</v>
+        <v>1.040402930739118</v>
       </c>
       <c r="L11">
-        <v>1.053137774963548</v>
+        <v>1.034755037025477</v>
       </c>
       <c r="M11">
-        <v>1.063446088454769</v>
+        <v>1.042881206804757</v>
       </c>
       <c r="N11">
-        <v>1.049483527018029</v>
+        <v>1.034759574491201</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.041260812122976</v>
+        <v>1.002967291681055</v>
       </c>
       <c r="D12">
-        <v>1.048713561676464</v>
+        <v>1.025110270565245</v>
       </c>
       <c r="E12">
-        <v>1.049433140409721</v>
+        <v>1.019288712276664</v>
       </c>
       <c r="F12">
-        <v>1.059760012559265</v>
+        <v>1.027476416993459</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044729674747689</v>
+        <v>1.050437824459362</v>
       </c>
       <c r="J12">
-        <v>1.047868916917215</v>
+        <v>1.032646599146396</v>
       </c>
       <c r="K12">
-        <v>1.052278514871461</v>
+        <v>1.039771706947738</v>
       </c>
       <c r="L12">
-        <v>1.052995464123998</v>
+        <v>1.03405547174556</v>
       </c>
       <c r="M12">
-        <v>1.063285034015106</v>
+        <v>1.042095488187954</v>
       </c>
       <c r="N12">
-        <v>1.049357010971482</v>
+        <v>1.034113075763404</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.041306338661549</v>
+        <v>1.003208335519246</v>
       </c>
       <c r="D13">
-        <v>1.048749282899923</v>
+        <v>1.02529171317055</v>
       </c>
       <c r="E13">
-        <v>1.04947330904585</v>
+        <v>1.019485498863925</v>
       </c>
       <c r="F13">
-        <v>1.059804105803066</v>
+        <v>1.027691476495282</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044742327745418</v>
+        <v>1.050523077192552</v>
       </c>
       <c r="J13">
-        <v>1.047896016956447</v>
+        <v>1.032785403959274</v>
       </c>
       <c r="K13">
-        <v>1.052304599809433</v>
+        <v>1.039907428629048</v>
       </c>
       <c r="L13">
-        <v>1.053025987944504</v>
+        <v>1.034205858684763</v>
       </c>
       <c r="M13">
-        <v>1.0633195773899</v>
+        <v>1.042264389642816</v>
       </c>
       <c r="N13">
-        <v>1.049384149495878</v>
+        <v>1.034252077695037</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.041455529828502</v>
+        <v>1.003996067703413</v>
       </c>
       <c r="D14">
-        <v>1.048866343107479</v>
+        <v>1.025884810246757</v>
       </c>
       <c r="E14">
-        <v>1.04960495503853</v>
+        <v>1.020128829299223</v>
       </c>
       <c r="F14">
-        <v>1.059948614421513</v>
+        <v>1.028394534694397</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044783753475368</v>
+        <v>1.050801405263448</v>
       </c>
       <c r="J14">
-        <v>1.04798481070891</v>
+        <v>1.033238963270285</v>
       </c>
       <c r="K14">
-        <v>1.052390063870307</v>
+        <v>1.040350898332644</v>
       </c>
       <c r="L14">
-        <v>1.053126010453423</v>
+        <v>1.034697358059655</v>
       </c>
       <c r="M14">
-        <v>1.063432774137055</v>
+        <v>1.042816421803203</v>
       </c>
       <c r="N14">
-        <v>1.049473069345655</v>
+        <v>1.034706281112294</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.041547466774116</v>
+        <v>1.004479844924569</v>
       </c>
       <c r="D15">
-        <v>1.048938480719507</v>
+        <v>1.026249161853981</v>
       </c>
       <c r="E15">
-        <v>1.049686089771576</v>
+        <v>1.02052409950952</v>
       </c>
       <c r="F15">
-        <v>1.060037676810643</v>
+        <v>1.028826495099786</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044809252148697</v>
+        <v>1.0509721238584</v>
       </c>
       <c r="J15">
-        <v>1.048039518270352</v>
+        <v>1.033517468772022</v>
       </c>
       <c r="K15">
-        <v>1.052442717114394</v>
+        <v>1.040623196616128</v>
       </c>
       <c r="L15">
-        <v>1.053187644443053</v>
+        <v>1.034999232498894</v>
       </c>
       <c r="M15">
-        <v>1.06350252816876</v>
+        <v>1.043155492552812</v>
       </c>
       <c r="N15">
-        <v>1.049527854598109</v>
+        <v>1.034985182123789</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.042082812624202</v>
+        <v>1.007272086430484</v>
       </c>
       <c r="D16">
-        <v>1.049358549265298</v>
+        <v>1.028353693865646</v>
       </c>
       <c r="E16">
-        <v>1.0501586832427</v>
+        <v>1.022808128574485</v>
       </c>
       <c r="F16">
-        <v>1.060556451793621</v>
+        <v>1.031322428044461</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044957281812011</v>
+        <v>1.051954193232873</v>
       </c>
       <c r="J16">
-        <v>1.048357920639077</v>
+        <v>1.035124250165438</v>
       </c>
       <c r="K16">
-        <v>1.052749119922202</v>
+        <v>1.042193981666681</v>
       </c>
       <c r="L16">
-        <v>1.053546483963368</v>
+        <v>1.036741928987219</v>
       </c>
       <c r="M16">
-        <v>1.063908674892569</v>
+        <v>1.045113187525024</v>
       </c>
       <c r="N16">
-        <v>1.049846709134719</v>
+        <v>1.036594245331084</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.042418824945594</v>
+        <v>1.009003298720297</v>
       </c>
       <c r="D17">
-        <v>1.049622218758874</v>
+        <v>1.029659864903083</v>
       </c>
       <c r="E17">
-        <v>1.050455439157945</v>
+        <v>1.024226510766075</v>
       </c>
       <c r="F17">
-        <v>1.060882210525456</v>
+        <v>1.032872313021387</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045049798376481</v>
+        <v>1.052560171102311</v>
       </c>
       <c r="J17">
-        <v>1.048557628012843</v>
+        <v>1.036119836531232</v>
       </c>
       <c r="K17">
-        <v>1.0529412627831</v>
+        <v>1.043167094501986</v>
       </c>
       <c r="L17">
-        <v>1.053771664118149</v>
+        <v>1.037822689322647</v>
       </c>
       <c r="M17">
-        <v>1.064163569139759</v>
+        <v>1.046327516895329</v>
       </c>
       <c r="N17">
-        <v>1.050046700115863</v>
+        <v>1.037591245543712</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.042614888264641</v>
+        <v>1.010005950150433</v>
       </c>
       <c r="D18">
-        <v>1.049776073982096</v>
+        <v>1.030416814271374</v>
       </c>
       <c r="E18">
-        <v>1.050628643176459</v>
+        <v>1.025048782702344</v>
       </c>
       <c r="F18">
-        <v>1.061072343749858</v>
+        <v>1.033770789835918</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045103639467182</v>
+        <v>1.052910066941984</v>
       </c>
       <c r="J18">
-        <v>1.048674107041822</v>
+        <v>1.036696202347773</v>
       </c>
       <c r="K18">
-        <v>1.053053316030392</v>
+        <v>1.043730386044539</v>
       </c>
       <c r="L18">
-        <v>1.053903039723105</v>
+        <v>1.038448709266812</v>
       </c>
       <c r="M18">
-        <v>1.064312290662629</v>
+        <v>1.047030989711796</v>
       </c>
       <c r="N18">
-        <v>1.050163344558422</v>
+        <v>1.038168429865823</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.042681753126714</v>
+        <v>1.010346634308055</v>
       </c>
       <c r="D19">
-        <v>1.049828544975383</v>
+        <v>1.030674090223395</v>
       </c>
       <c r="E19">
-        <v>1.050687720095511</v>
+        <v>1.025328311086193</v>
       </c>
       <c r="F19">
-        <v>1.061137195182778</v>
+        <v>1.03407621875528</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045121977126971</v>
+        <v>1.053028773990116</v>
       </c>
       <c r="J19">
-        <v>1.048713822170962</v>
+        <v>1.036892000041652</v>
       </c>
       <c r="K19">
-        <v>1.053091519786318</v>
+        <v>1.043921731169323</v>
       </c>
       <c r="L19">
-        <v>1.053947840764645</v>
+        <v>1.038661433547902</v>
       </c>
       <c r="M19">
-        <v>1.064363008615505</v>
+        <v>1.047270047108225</v>
       </c>
       <c r="N19">
-        <v>1.050203116087602</v>
+        <v>1.038364505614886</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.042382766439638</v>
+        <v>1.008818297958235</v>
       </c>
       <c r="D20">
-        <v>1.049593923167445</v>
+        <v>1.029520236202107</v>
       </c>
       <c r="E20">
-        <v>1.05042358852971</v>
+        <v>1.024074856352895</v>
       </c>
       <c r="F20">
-        <v>1.060847246890912</v>
+        <v>1.032706601448156</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045039884864503</v>
+        <v>1.05249552505883</v>
       </c>
       <c r="J20">
-        <v>1.048536202006509</v>
+        <v>1.036013470767597</v>
       </c>
       <c r="K20">
-        <v>1.052920649776518</v>
+        <v>1.043063136313221</v>
       </c>
       <c r="L20">
-        <v>1.053747501115892</v>
+        <v>1.037707187999429</v>
       </c>
       <c r="M20">
-        <v>1.06413621662753</v>
+        <v>1.046197732246974</v>
       </c>
       <c r="N20">
-        <v>1.050025243682141</v>
+        <v>1.037484728728493</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.041411593549026</v>
+        <v>1.003764428442473</v>
       </c>
       <c r="D21">
-        <v>1.048831869092045</v>
+        <v>1.025710382544242</v>
       </c>
       <c r="E21">
-        <v>1.049566183719275</v>
+        <v>1.019939615811697</v>
       </c>
       <c r="F21">
-        <v>1.059906054844429</v>
+        <v>1.028187755871846</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044771559855013</v>
+        <v>1.050719605042899</v>
       </c>
       <c r="J21">
-        <v>1.047958663409637</v>
+        <v>1.033105599260018</v>
       </c>
       <c r="K21">
-        <v>1.052364897662215</v>
+        <v>1.040220503494001</v>
       </c>
       <c r="L21">
-        <v>1.053096554894041</v>
+        <v>1.034552823161857</v>
       </c>
       <c r="M21">
-        <v>1.063399438476105</v>
+        <v>1.042654082390643</v>
       </c>
       <c r="N21">
-        <v>1.049446884914217</v>
+        <v>1.034572727709836</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.040801647272034</v>
+        <v>1.000518732461433</v>
       </c>
       <c r="D22">
-        <v>1.048353299640929</v>
+        <v>1.023268310632671</v>
       </c>
       <c r="E22">
-        <v>1.049028114780141</v>
+        <v>1.01729159498125</v>
       </c>
       <c r="F22">
-        <v>1.059315417575358</v>
+        <v>1.025293775014576</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044601757311042</v>
+        <v>1.049569612340267</v>
       </c>
       <c r="J22">
-        <v>1.047595488543407</v>
+        <v>1.031236174569019</v>
       </c>
       <c r="K22">
-        <v>1.052015299213059</v>
+        <v>1.038392493635835</v>
       </c>
       <c r="L22">
-        <v>1.052687575813047</v>
+        <v>1.032528112435068</v>
       </c>
       <c r="M22">
-        <v>1.062936622512228</v>
+        <v>1.040380276196254</v>
       </c>
       <c r="N22">
-        <v>1.049083194298021</v>
+        <v>1.03270064822135</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.041124927424973</v>
+        <v>1.002245988391877</v>
       </c>
       <c r="D23">
-        <v>1.0486069442904</v>
+        <v>1.024567440908425</v>
       </c>
       <c r="E23">
-        <v>1.049313258433831</v>
+        <v>1.018700042596264</v>
       </c>
       <c r="F23">
-        <v>1.059628418040265</v>
+        <v>1.026833077188175</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044691876472564</v>
+        <v>1.050182477723619</v>
       </c>
       <c r="J23">
-        <v>1.047788019050715</v>
+        <v>1.032231191428385</v>
       </c>
       <c r="K23">
-        <v>1.052200644118646</v>
+        <v>1.039365513609255</v>
       </c>
       <c r="L23">
-        <v>1.052904354764175</v>
+        <v>1.033605481723005</v>
       </c>
       <c r="M23">
-        <v>1.063181929121442</v>
+        <v>1.041590118346648</v>
       </c>
       <c r="N23">
-        <v>1.049275998220733</v>
+        <v>1.033697078118786</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.042399059500929</v>
+        <v>1.008901913850028</v>
       </c>
       <c r="D24">
-        <v>1.049606708538156</v>
+        <v>1.029583343576086</v>
       </c>
       <c r="E24">
-        <v>1.050437980113907</v>
+        <v>1.02414339802292</v>
       </c>
       <c r="F24">
-        <v>1.060863045070504</v>
+        <v>1.032781496481235</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045044364731685</v>
+        <v>1.052524746813433</v>
       </c>
       <c r="J24">
-        <v>1.048545883517982</v>
+        <v>1.036061546277793</v>
       </c>
       <c r="K24">
-        <v>1.052929963970208</v>
+        <v>1.043110123839356</v>
       </c>
       <c r="L24">
-        <v>1.053758419238353</v>
+        <v>1.037759391556743</v>
       </c>
       <c r="M24">
-        <v>1.064148575908433</v>
+        <v>1.046256391229944</v>
       </c>
       <c r="N24">
-        <v>1.050034938942471</v>
+        <v>1.037532872511428</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.043880477460844</v>
+        <v>1.016347524877742</v>
       </c>
       <c r="D25">
-        <v>1.050769276300649</v>
+        <v>1.035212137097949</v>
       </c>
       <c r="E25">
-        <v>1.051747516970345</v>
+        <v>1.03026328683706</v>
       </c>
       <c r="F25">
-        <v>1.062300605193824</v>
+        <v>1.039468054530218</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045448609013341</v>
+        <v>1.055103718677337</v>
       </c>
       <c r="J25">
-        <v>1.049425067630118</v>
+        <v>1.040336982054886</v>
       </c>
       <c r="K25">
-        <v>1.053775492769696</v>
+        <v>1.047287359487359</v>
       </c>
       <c r="L25">
-        <v>1.054750756962329</v>
+        <v>1.042409290995855</v>
       </c>
       <c r="M25">
-        <v>1.065272115167433</v>
+        <v>1.051483087007274</v>
       </c>
       <c r="N25">
-        <v>1.050915371596891</v>
+        <v>1.041814379897724</v>
       </c>
     </row>
   </sheetData>
